--- a/docs/StructureDefinition-WorkflowVersion.xlsx
+++ b/docs/StructureDefinition-WorkflowVersion.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/WorkflowVersion</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/WorkflowVersion</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:10:57-04:00</t>
+    <t>2023-04-28T18:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/WorkflowExtension</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/WorkflowExtension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/docs/StructureDefinition-WorkflowVersion.xlsx
+++ b/docs/StructureDefinition-WorkflowVersion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T18:08:06+00:00</t>
+    <t>2023-05-01T14:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-WorkflowVersion.xlsx
+++ b/docs/StructureDefinition-WorkflowVersion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T14:10:01+00:00</t>
+    <t>2023-05-01T15:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
